--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="588">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2722,7 +2722,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2765,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2829,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2889,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2955,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3018,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3116,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3175,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3240,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3283,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3358,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3544,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3610,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3668,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3734,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3790,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3865,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,7 +3908,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +3974,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4030,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4128,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4191,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4640,7 +4640,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A698" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B714" sqref="B714"/>
+      <selection pane="bottomLeft" activeCell="F715" sqref="F715"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,7 +4803,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.256000000000085</v>
+        <v>39.756000000000085</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4813,7 +4813,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>38.353000000000009</v>
+        <v>39.853000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -20708,13 +20708,15 @@
       <c r="B713" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C713" s="13"/>
+      <c r="C713" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D713" s="39"/>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G713" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
@@ -20727,19 +20729,27 @@
       <c r="A714" s="40">
         <v>45261</v>
       </c>
-      <c r="B714" s="20"/>
-      <c r="C714" s="13"/>
+      <c r="B714" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C714" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H714" s="39"/>
+      <c r="G714" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H714" s="39">
+        <v>1</v>
+      </c>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20"/>
+      <c r="K714" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40">

--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="589">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1798,6 +1798,9 @@
   </si>
   <si>
     <t>10/19,20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2725,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2765,7 +2768,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2832,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2892,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2958,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3021,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3116,7 +3119,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3175,7 +3178,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3243,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3286,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3358,7 +3361,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3544,7 +3547,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3613,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3668,7 +3671,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3734,7 +3737,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3790,7 +3793,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3865,7 +3868,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3908,7 +3911,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3974,7 +3977,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4030,7 +4033,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4128,7 +4131,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4191,7 +4194,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4257,7 +4260,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K744" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K745" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4635,10 +4638,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L744"/>
+  <dimension ref="A2:L745"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A698" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A707" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="F715" sqref="F715"/>
     </sheetView>
@@ -20752,8 +20755,8 @@
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40">
-        <v>45292</v>
+      <c r="A715" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -20767,13 +20770,15 @@
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="20"/>
+      <c r="K715" s="49"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B716" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B716" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C716" s="13"/>
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
@@ -20785,11 +20790,13 @@
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="20"/>
+      <c r="K716" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -20807,7 +20814,7 @@
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -20825,7 +20832,7 @@
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -20843,7 +20850,7 @@
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20861,7 +20868,7 @@
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -20879,7 +20886,7 @@
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20897,7 +20904,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20915,7 +20922,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20933,7 +20940,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20951,7 +20958,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20969,7 +20976,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20987,7 +20994,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -21005,7 +21012,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -21023,7 +21030,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -21041,7 +21048,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -21059,7 +21066,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -21077,7 +21084,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -21095,7 +21102,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -21113,7 +21120,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -21131,7 +21138,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -21149,7 +21156,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -21167,7 +21174,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -21185,7 +21192,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -21203,7 +21210,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21221,7 +21228,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21239,7 +21246,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21257,7 +21264,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21275,7 +21282,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21290,6 +21297,24 @@
       <c r="I744" s="9"/>
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
+    </row>
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A745" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B745" s="20"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="39"/>
+      <c r="E745" s="9"/>
+      <c r="F745" s="20"/>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H745" s="39"/>
+      <c r="I745" s="9"/>
+      <c r="J745" s="11"/>
+      <c r="K745" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -2725,7 +2725,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2768,7 +2768,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2832,7 +2832,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2892,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2958,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3021,7 +3021,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3119,7 +3119,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3178,7 +3178,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3286,7 +3286,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3361,7 +3361,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3547,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3613,7 +3613,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3671,7 +3671,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3737,7 +3737,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3793,7 +3793,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3868,7 +3868,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3911,7 +3911,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3977,7 +3977,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4033,7 +4033,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4131,7 +4131,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4194,7 +4194,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4638,12 +4638,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:L745"/>
+  <dimension ref="A2:M745"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A707" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="F715" sqref="F715"/>
+      <selection activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="I711" sqref="I711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4661,7 +4661,7 @@
     <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4682,7 +4682,7 @@
       <c r="J2" s="67"/>
       <c r="K2" s="68"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="J3" s="69"/>
       <c r="K3" s="70"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4724,7 +4724,7 @@
       <c r="J4" s="71"/>
       <c r="K4" s="72"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4732,7 +4732,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4745,7 +4745,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="65" t="s">
@@ -4762,7 +4762,7 @@
       <c r="J7" s="65"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4820,8 +4820,9 @@
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="43"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="51" t="s">
         <v>43</v>
       </c>
@@ -4843,7 +4844,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="60" t="s">
         <v>61</v>
       </c>
@@ -4865,7 +4866,7 @@
       <c r="K11" s="58"/>
       <c r="L11" s="57"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="53">
         <v>35916</v>
       </c>
@@ -4885,7 +4886,7 @@
       <c r="J12" s="56"/>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>60</v>
@@ -4905,7 +4906,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35947</v>
       </c>
@@ -4931,7 +4932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>45</v>
@@ -4951,7 +4952,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f>EDATE(A14,1)</f>
         <v>35977</v>

--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="594">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1801,6 +1801,21 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-1-47)</t>
+  </si>
+  <si>
+    <t>UT(0-0-40)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>UT(0-0-51)</t>
+  </si>
+  <si>
+    <t>UT(0-0-23)</t>
   </si>
 </sst>
 </file>
@@ -4260,7 +4275,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K745" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K750" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4638,12 +4653,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M745"/>
+  <dimension ref="A2:M750"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A707" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A704" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="I711" sqref="I711"/>
+      <selection pane="bottomLeft" activeCell="F716" sqref="F716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4806,7 +4821,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.756000000000085</v>
+        <v>39.132000000000062</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -20588,34 +20603,32 @@
       </c>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A708" s="40"/>
       <c r="B708" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="C708" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D708" s="39"/>
+        <v>593</v>
+      </c>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39">
+        <v>4.8000000000000008E-2</v>
+      </c>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="49">
-        <v>45133</v>
-      </c>
+      <c r="K708" s="49"/>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B709" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B709" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C709" s="13">
         <v>1.25</v>
       </c>
@@ -20629,20 +20642,22 @@
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="20"/>
+      <c r="K709" s="49">
+        <v>45133</v>
+      </c>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B710" s="20" t="s">
-        <v>567</v>
+        <v>592</v>
       </c>
       <c r="C710" s="13">
         <v>1.25</v>
       </c>
       <c r="D710" s="39">
-        <v>2</v>
+        <v>0.10600000000000001</v>
       </c>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
@@ -20653,88 +20668,82 @@
       <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="20" t="s">
-        <v>585</v>
-      </c>
+      <c r="K710" s="20"/>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="40"/>
+      <c r="A711" s="40">
+        <v>45170</v>
+      </c>
       <c r="B711" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C711" s="13"/>
-      <c r="D711" s="39"/>
+        <v>567</v>
+      </c>
+      <c r="C711" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D711" s="39">
+        <v>2</v>
+      </c>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H711" s="39">
-        <v>1</v>
-      </c>
+      <c r="G711" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H711" s="39"/>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
-      <c r="K711" s="49">
-        <v>45191</v>
+      <c r="K711" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A712" s="40"/>
       <c r="B712" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="C712" s="13">
-        <v>1.25</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C712" s="13"/>
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H712" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
-      <c r="K712" s="20" t="s">
-        <v>587</v>
+      <c r="K712" s="49">
+        <v>45191</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A713" s="40">
-        <v>45231</v>
-      </c>
+      <c r="A713" s="40"/>
       <c r="B713" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="C713" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D713" s="39"/>
+        <v>591</v>
+      </c>
+      <c r="C713" s="13"/>
+      <c r="D713" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
-      <c r="K713" s="49">
-        <v>45233</v>
-      </c>
+      <c r="K713" s="49"/>
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B714" s="20" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="C714" s="13">
         <v>1.25</v>
@@ -20747,21 +20756,23 @@
         <v>1.25</v>
       </c>
       <c r="H714" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="49">
-        <v>45282</v>
+      <c r="K714" s="20" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B715" s="20"/>
+      <c r="A715" s="40"/>
+      <c r="B715" s="20" t="s">
+        <v>590</v>
+      </c>
       <c r="C715" s="13"/>
-      <c r="D715" s="39"/>
+      <c r="D715" s="39">
+        <v>8.3000000000000018E-2</v>
+      </c>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
       <c r="G715" s="13" t="str">
@@ -20771,37 +20782,41 @@
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
-      <c r="K715" s="49"/>
+      <c r="K715" s="20"/>
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B716" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C716" s="13"/>
+      <c r="C716" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G716" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
       <c r="K716" s="49">
-        <v>45307</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A717" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B717" s="20"/>
+      <c r="A717" s="40"/>
+      <c r="B717" s="20" t="s">
+        <v>579</v>
+      </c>
       <c r="C717" s="13"/>
-      <c r="D717" s="39"/>
+      <c r="D717" s="39">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
       <c r="G717" s="13" t="str">
@@ -20811,33 +20826,43 @@
       <c r="H717" s="39"/>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="20"/>
+      <c r="K717" s="49"/>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B718" s="20"/>
-      <c r="C718" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B718" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C718" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H718" s="39"/>
+      <c r="G718" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H718" s="39">
+        <v>1</v>
+      </c>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="20"/>
+      <c r="K718" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B719" s="20"/>
+      <c r="A719" s="40"/>
+      <c r="B719" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="C719" s="13"/>
-      <c r="D719" s="39"/>
+      <c r="D719" s="39">
+        <v>0.223</v>
+      </c>
       <c r="E719" s="9"/>
       <c r="F719" s="20"/>
       <c r="G719" s="13" t="str">
@@ -20847,11 +20872,11 @@
       <c r="H719" s="39"/>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="20"/>
+      <c r="K719" s="49"/>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" s="40">
-        <v>45413</v>
+      <c r="A720" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -20865,13 +20890,15 @@
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="20"/>
+      <c r="K720" s="49"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B721" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B721" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C721" s="13"/>
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
@@ -20883,11 +20910,13 @@
       <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
-      <c r="K721" s="20"/>
+      <c r="K721" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -20905,7 +20934,7 @@
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -20923,7 +20952,7 @@
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -20941,7 +20970,7 @@
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20959,7 +20988,7 @@
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -20977,7 +21006,7 @@
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -20995,7 +21024,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -21013,7 +21042,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -21031,7 +21060,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -21049,7 +21078,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -21067,7 +21096,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -21085,7 +21114,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -21103,7 +21132,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -21121,7 +21150,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -21139,7 +21168,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -21157,7 +21186,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -21175,7 +21204,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -21193,7 +21222,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -21211,7 +21240,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21229,7 +21258,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21247,7 +21276,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21265,7 +21294,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21283,7 +21312,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21301,7 +21330,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -21316,6 +21345,96 @@
       <c r="I745" s="9"/>
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
+    </row>
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A746" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B746" s="20"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="39"/>
+      <c r="E746" s="9"/>
+      <c r="F746" s="20"/>
+      <c r="G746" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H746" s="39"/>
+      <c r="I746" s="9"/>
+      <c r="J746" s="11"/>
+      <c r="K746" s="20"/>
+    </row>
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A747" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B747" s="20"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="39"/>
+      <c r="E747" s="9"/>
+      <c r="F747" s="20"/>
+      <c r="G747" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H747" s="39"/>
+      <c r="I747" s="9"/>
+      <c r="J747" s="11"/>
+      <c r="K747" s="20"/>
+    </row>
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A748" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B748" s="20"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="39"/>
+      <c r="E748" s="9"/>
+      <c r="F748" s="20"/>
+      <c r="G748" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H748" s="39"/>
+      <c r="I748" s="9"/>
+      <c r="J748" s="11"/>
+      <c r="K748" s="20"/>
+    </row>
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A749" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B749" s="20"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="39"/>
+      <c r="E749" s="9"/>
+      <c r="F749" s="20"/>
+      <c r="G749" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H749" s="39"/>
+      <c r="I749" s="9"/>
+      <c r="J749" s="11"/>
+      <c r="K749" s="20"/>
+    </row>
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A750" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B750" s="20"/>
+      <c r="C750" s="13"/>
+      <c r="D750" s="39"/>
+      <c r="E750" s="9"/>
+      <c r="F750" s="20"/>
+      <c r="G750" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H750" s="39"/>
+      <c r="I750" s="9"/>
+      <c r="J750" s="11"/>
+      <c r="K750" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21428,15 +21547,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.12300000000000001</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="599">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1816,6 +1816,21 @@
   </si>
   <si>
     <t>UT(0-0-23)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
+  </si>
+  <si>
+    <t>UT(0-0-13)</t>
+  </si>
+  <si>
+    <t>A(5-0-0)</t>
+  </si>
+  <si>
+    <t>2/20-23,27/2023</t>
+  </si>
+  <si>
+    <t>UT(0-0-58)</t>
   </si>
 </sst>
 </file>
@@ -4275,7 +4290,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K750" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K755" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4653,12 +4668,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M750"/>
+  <dimension ref="A2:M755"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A704" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A695" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="F716" sqref="F716"/>
+      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4821,7 +4836,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.132000000000062</v>
+        <v>33.905000000000086</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -20451,34 +20466,28 @@
       </c>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B702" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="C702" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D702" s="42"/>
-      <c r="E702" s="47"/>
-      <c r="F702" s="15"/>
-      <c r="G702" s="41">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H702" s="42">
-        <v>1</v>
-      </c>
-      <c r="I702" s="47"/>
-      <c r="J702" s="12"/>
-      <c r="K702" s="50">
-        <v>44965</v>
-      </c>
+      <c r="A702" s="40"/>
+      <c r="B702" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="C702" s="13"/>
+      <c r="D702" s="39">
+        <v>0.12100000000000001</v>
+      </c>
+      <c r="E702" s="9"/>
+      <c r="F702" s="20"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H702" s="39"/>
+      <c r="I702" s="9"/>
+      <c r="J702" s="11"/>
+      <c r="K702" s="49"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40">
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B703" s="15" t="s">
         <v>569</v>
@@ -20499,215 +20508,207 @@
       <c r="I703" s="47"/>
       <c r="J703" s="12"/>
       <c r="K703" s="50">
-        <v>44999</v>
+        <v>44965</v>
       </c>
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A704" s="40">
-        <v>45017</v>
-      </c>
+      <c r="A704" s="40"/>
       <c r="B704" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C704" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D704" s="39"/>
+        <v>596</v>
+      </c>
+      <c r="C704" s="13"/>
+      <c r="D704" s="39">
+        <v>5</v>
+      </c>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H704" s="39">
-        <v>1</v>
-      </c>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
-      <c r="K704" s="49">
-        <v>45030</v>
+      <c r="K704" s="49" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A705" s="40">
-        <v>45047</v>
-      </c>
+      <c r="A705" s="40"/>
       <c r="B705" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C705" s="41">
-        <v>1.25</v>
-      </c>
-      <c r="D705" s="39"/>
+        <v>595</v>
+      </c>
+      <c r="C705" s="13"/>
+      <c r="D705" s="39">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H705" s="39">
-        <v>1</v>
-      </c>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
-      <c r="K705" s="49">
-        <v>45058</v>
-      </c>
+      <c r="K705" s="49"/>
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A706" s="40"/>
-      <c r="B706" s="20" t="s">
+      <c r="A706" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B706" s="15" t="s">
         <v>569</v>
       </c>
-      <c r="C706" s="41"/>
-      <c r="D706" s="39"/>
-      <c r="E706" s="9"/>
-      <c r="F706" s="20"/>
-      <c r="G706" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H706" s="39">
+      <c r="C706" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D706" s="42"/>
+      <c r="E706" s="47"/>
+      <c r="F706" s="15"/>
+      <c r="G706" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H706" s="42">
         <v>1</v>
       </c>
-      <c r="I706" s="9"/>
-      <c r="J706" s="11"/>
-      <c r="K706" s="49">
-        <v>45075</v>
+      <c r="I706" s="47"/>
+      <c r="J706" s="12"/>
+      <c r="K706" s="50">
+        <v>44999</v>
       </c>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="40">
-        <v>45078</v>
-      </c>
+      <c r="A707" s="40"/>
       <c r="B707" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C707" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D707" s="39"/>
+        <v>595</v>
+      </c>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39">
+        <v>2.700000000000001E-2</v>
+      </c>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H707" s="39">
-        <v>1</v>
-      </c>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
-      <c r="K707" s="49">
-        <v>45104</v>
-      </c>
+      <c r="K707" s="49"/>
     </row>
     <row r="708" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A708" s="40"/>
+      <c r="A708" s="40">
+        <v>45017</v>
+      </c>
       <c r="B708" s="20" t="s">
-        <v>593</v>
-      </c>
-      <c r="C708" s="13"/>
-      <c r="D708" s="39">
-        <v>4.8000000000000008E-2</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C708" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H708" s="39"/>
+      <c r="G708" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H708" s="39">
+        <v>1</v>
+      </c>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
-      <c r="K708" s="49"/>
+      <c r="K708" s="49">
+        <v>45030</v>
+      </c>
     </row>
     <row r="709" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A709" s="40">
-        <v>45108</v>
-      </c>
+      <c r="A709" s="40"/>
       <c r="B709" s="20" t="s">
-        <v>570</v>
-      </c>
-      <c r="C709" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D709" s="39"/>
+        <v>594</v>
+      </c>
+      <c r="C709" s="13"/>
+      <c r="D709" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
-      <c r="K709" s="49">
-        <v>45133</v>
-      </c>
+      <c r="K709" s="49"/>
     </row>
     <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B710" s="20" t="s">
-        <v>592</v>
-      </c>
-      <c r="C710" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D710" s="39">
-        <v>0.10600000000000001</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C710" s="41">
+        <v>1.25</v>
+      </c>
+      <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
       <c r="G710" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H710" s="39"/>
+      <c r="H710" s="39">
+        <v>1</v>
+      </c>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
-      <c r="K710" s="20"/>
+      <c r="K710" s="49">
+        <v>45058</v>
+      </c>
     </row>
     <row r="711" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A711" s="40">
-        <v>45170</v>
-      </c>
+      <c r="A711" s="40"/>
       <c r="B711" s="20" t="s">
-        <v>567</v>
-      </c>
-      <c r="C711" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D711" s="39">
-        <v>2</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="C711" s="41"/>
+      <c r="D711" s="39"/>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H711" s="39"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H711" s="39">
+        <v>1</v>
+      </c>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
-      <c r="K711" s="20" t="s">
-        <v>585</v>
+      <c r="K711" s="49">
+        <v>45075</v>
       </c>
     </row>
     <row r="712" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A712" s="40"/>
+      <c r="A712" s="40">
+        <v>45078</v>
+      </c>
       <c r="B712" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="C712" s="13"/>
+      <c r="C712" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G712" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H712" s="39">
         <v>1</v>
@@ -20715,17 +20716,17 @@
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
       <c r="K712" s="49">
-        <v>45191</v>
+        <v>45104</v>
       </c>
     </row>
     <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C713" s="13"/>
       <c r="D713" s="39">
-        <v>7.7000000000000013E-2</v>
+        <v>4.8000000000000008E-2</v>
       </c>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
@@ -20740,10 +20741,10 @@
     </row>
     <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B714" s="20" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="C714" s="13">
         <v>1.25</v>
@@ -20755,29 +20756,31 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H714" s="39">
-        <v>2</v>
-      </c>
+      <c r="H714" s="39"/>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
-      <c r="K714" s="20" t="s">
-        <v>587</v>
+      <c r="K714" s="49">
+        <v>45133</v>
       </c>
     </row>
     <row r="715" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A715" s="40"/>
+      <c r="A715" s="40">
+        <v>45139</v>
+      </c>
       <c r="B715" s="20" t="s">
-        <v>590</v>
-      </c>
-      <c r="C715" s="13"/>
+        <v>592</v>
+      </c>
+      <c r="C715" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D715" s="39">
-        <v>8.3000000000000018E-2</v>
+        <v>0.10600000000000001</v>
       </c>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G715" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
@@ -20786,15 +20789,17 @@
     </row>
     <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B716" s="20" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C716" s="13">
         <v>1.25</v>
       </c>
-      <c r="D716" s="39"/>
+      <c r="D716" s="39">
+        <v>2</v>
+      </c>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
       <c r="G716" s="13">
@@ -20804,83 +20809,87 @@
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
-      <c r="K716" s="49">
-        <v>45233</v>
+      <c r="K716" s="20" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C717" s="13"/>
-      <c r="D717" s="39">
-        <v>8.7000000000000022E-2</v>
-      </c>
+      <c r="D717" s="39"/>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
       <c r="G717" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H717" s="39"/>
+      <c r="H717" s="39">
+        <v>1</v>
+      </c>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
-      <c r="K717" s="49"/>
+      <c r="K717" s="49">
+        <v>45191</v>
+      </c>
     </row>
     <row r="718" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A718" s="40">
-        <v>45261</v>
-      </c>
+      <c r="A718" s="40"/>
       <c r="B718" s="20" t="s">
-        <v>569</v>
-      </c>
-      <c r="C718" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D718" s="39"/>
+        <v>591</v>
+      </c>
+      <c r="C718" s="13"/>
+      <c r="D718" s="39">
+        <v>7.7000000000000013E-2</v>
+      </c>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H718" s="39">
-        <v>1</v>
-      </c>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H718" s="39"/>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
-      <c r="K718" s="49">
-        <v>45282</v>
-      </c>
+      <c r="K718" s="49"/>
     </row>
     <row r="719" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A719" s="40"/>
+      <c r="A719" s="40">
+        <v>45200</v>
+      </c>
       <c r="B719" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="C719" s="13"/>
-      <c r="D719" s="39">
-        <v>0.223</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="C719" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D719" s="39"/>
       <c r="E719" s="9"/>
       <c r="F719" s="20"/>
-      <c r="G719" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H719" s="39"/>
+      <c r="G719" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H719" s="39">
+        <v>2</v>
+      </c>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
-      <c r="K719" s="49"/>
+      <c r="K719" s="20" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="720" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A720" s="48" t="s">
-        <v>588</v>
-      </c>
-      <c r="B720" s="20"/>
+      <c r="A720" s="40"/>
+      <c r="B720" s="20" t="s">
+        <v>590</v>
+      </c>
       <c r="C720" s="13"/>
-      <c r="D720" s="39"/>
+      <c r="D720" s="39">
+        <v>8.3000000000000018E-2</v>
+      </c>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
       <c r="G720" s="13" t="str">
@@ -20890,37 +20899,41 @@
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
-      <c r="K720" s="49"/>
+      <c r="K720" s="20"/>
     </row>
     <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B721" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="C721" s="13"/>
+      <c r="C721" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
-      <c r="G721" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G721" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
       <c r="K721" s="49">
-        <v>45307</v>
+        <v>45233</v>
       </c>
     </row>
     <row r="722" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A722" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B722" s="20"/>
+      <c r="A722" s="40"/>
+      <c r="B722" s="20" t="s">
+        <v>579</v>
+      </c>
       <c r="C722" s="13"/>
-      <c r="D722" s="39"/>
+      <c r="D722" s="39">
+        <v>8.7000000000000022E-2</v>
+      </c>
       <c r="E722" s="9"/>
       <c r="F722" s="20"/>
       <c r="G722" s="13" t="str">
@@ -20930,33 +20943,43 @@
       <c r="H722" s="39"/>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
-      <c r="K722" s="20"/>
+      <c r="K722" s="49"/>
     </row>
     <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B723" s="20"/>
-      <c r="C723" s="13"/>
+        <v>45261</v>
+      </c>
+      <c r="B723" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="C723" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H723" s="39"/>
+      <c r="G723" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H723" s="39">
+        <v>1</v>
+      </c>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
-      <c r="K723" s="20"/>
+      <c r="K723" s="49">
+        <v>45282</v>
+      </c>
     </row>
     <row r="724" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A724" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B724" s="20"/>
+      <c r="A724" s="40"/>
+      <c r="B724" s="20" t="s">
+        <v>589</v>
+      </c>
       <c r="C724" s="13"/>
-      <c r="D724" s="39"/>
+      <c r="D724" s="39">
+        <v>0.223</v>
+      </c>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
       <c r="G724" s="13" t="str">
@@ -20966,11 +20989,11 @@
       <c r="H724" s="39"/>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
-      <c r="K724" s="20"/>
+      <c r="K724" s="49"/>
     </row>
     <row r="725" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A725" s="40">
-        <v>45413</v>
+      <c r="A725" s="48" t="s">
+        <v>588</v>
       </c>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -20984,13 +21007,15 @@
       <c r="H725" s="39"/>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
-      <c r="K725" s="20"/>
+      <c r="K725" s="49"/>
     </row>
     <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40">
-        <v>45444</v>
-      </c>
-      <c r="B726" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B726" s="20" t="s">
+        <v>570</v>
+      </c>
       <c r="C726" s="13"/>
       <c r="D726" s="39"/>
       <c r="E726" s="9"/>
@@ -21002,11 +21027,13 @@
       <c r="H726" s="39"/>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
-      <c r="K726" s="20"/>
+      <c r="K726" s="49">
+        <v>45307</v>
+      </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -21024,7 +21051,7 @@
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -21042,7 +21069,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -21060,7 +21087,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -21078,7 +21105,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -21096,7 +21123,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -21114,7 +21141,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -21132,7 +21159,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -21150,7 +21177,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -21168,7 +21195,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -21186,7 +21213,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -21204,7 +21231,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -21222,7 +21249,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -21240,7 +21267,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21258,7 +21285,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21276,7 +21303,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21294,7 +21321,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21312,7 +21339,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21330,7 +21357,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>46023</v>
+        <v>45870</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -21348,7 +21375,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>46054</v>
+        <v>45901</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -21366,7 +21393,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>46082</v>
+        <v>45931</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -21384,7 +21411,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>46113</v>
+        <v>45962</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -21402,7 +21429,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>46143</v>
+        <v>45992</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -21420,7 +21447,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>46174</v>
+        <v>46023</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -21435,6 +21462,96 @@
       <c r="I750" s="9"/>
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
+    </row>
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A751" s="40">
+        <v>46054</v>
+      </c>
+      <c r="B751" s="20"/>
+      <c r="C751" s="13"/>
+      <c r="D751" s="39"/>
+      <c r="E751" s="9"/>
+      <c r="F751" s="20"/>
+      <c r="G751" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H751" s="39"/>
+      <c r="I751" s="9"/>
+      <c r="J751" s="11"/>
+      <c r="K751" s="20"/>
+    </row>
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A752" s="40">
+        <v>46082</v>
+      </c>
+      <c r="B752" s="20"/>
+      <c r="C752" s="13"/>
+      <c r="D752" s="39"/>
+      <c r="E752" s="9"/>
+      <c r="F752" s="20"/>
+      <c r="G752" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H752" s="39"/>
+      <c r="I752" s="9"/>
+      <c r="J752" s="11"/>
+      <c r="K752" s="20"/>
+    </row>
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A753" s="40">
+        <v>46113</v>
+      </c>
+      <c r="B753" s="20"/>
+      <c r="C753" s="13"/>
+      <c r="D753" s="39"/>
+      <c r="E753" s="9"/>
+      <c r="F753" s="20"/>
+      <c r="G753" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H753" s="39"/>
+      <c r="I753" s="9"/>
+      <c r="J753" s="11"/>
+      <c r="K753" s="20"/>
+    </row>
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A754" s="40">
+        <v>46143</v>
+      </c>
+      <c r="B754" s="20"/>
+      <c r="C754" s="13"/>
+      <c r="D754" s="39"/>
+      <c r="E754" s="9"/>
+      <c r="F754" s="20"/>
+      <c r="G754" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H754" s="39"/>
+      <c r="I754" s="9"/>
+      <c r="J754" s="11"/>
+      <c r="K754" s="20"/>
+    </row>
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A755" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B755" s="20"/>
+      <c r="C755" s="13"/>
+      <c r="D755" s="39"/>
+      <c r="E755" s="9"/>
+      <c r="F755" s="20"/>
+      <c r="G755" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H755" s="39"/>
+      <c r="I755" s="9"/>
+      <c r="J755" s="11"/>
+      <c r="K755" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -21549,11 +21666,11 @@
       </c>
       <c r="E3"/>
       <c r="F3">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G3" s="46">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>4.8000000000000008E-2</v>
+        <v>0.12100000000000001</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">

--- a/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
+++ b/REGULAR/CEO/MENDOZA, PRESCILA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="599">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2755,7 +2755,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,7 +2798,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2862,7 +2862,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2922,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2988,7 +2988,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3051,7 +3051,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3149,7 +3149,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3208,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3273,7 +3273,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3316,7 +3316,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3391,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3577,7 +3577,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3643,7 +3643,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3701,7 +3701,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3767,7 +3767,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3823,7 +3823,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3898,7 +3898,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3941,7 +3941,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +4007,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4063,7 +4063,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4161,7 +4161,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4224,7 +4224,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4290,7 +4290,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K755" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K756" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -4668,12 +4668,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M755"/>
+  <dimension ref="A2:M756"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A695" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A713" activePane="bottomLeft"/>
       <selection activeCell="M9" sqref="M9"/>
-      <selection pane="bottomLeft" activeCell="E702" sqref="E702"/>
+      <selection pane="bottomLeft" activeCell="K727" sqref="K727"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,7 +4846,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>39.853000000000009</v>
+        <v>38.853000000000009</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -21032,10 +21032,10 @@
       </c>
     </row>
     <row r="727" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A727" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B727" s="20"/>
+      <c r="A727" s="40"/>
+      <c r="B727" s="20" t="s">
+        <v>569</v>
+      </c>
       <c r="C727" s="13"/>
       <c r="D727" s="39"/>
       <c r="E727" s="9"/>
@@ -21044,14 +21044,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H727" s="39"/>
+      <c r="H727" s="39">
+        <v>1</v>
+      </c>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
-      <c r="K727" s="20"/>
+      <c r="K727" s="49">
+        <v>45313</v>
+      </c>
     </row>
     <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -21069,7 +21073,7 @@
     </row>
     <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -21087,7 +21091,7 @@
     </row>
     <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -21105,7 +21109,7 @@
     </row>
     <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -21123,7 +21127,7 @@
     </row>
     <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -21141,7 +21145,7 @@
     </row>
     <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -21159,7 +21163,7 @@
     </row>
     <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -21177,7 +21181,7 @@
     </row>
     <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -21195,7 +21199,7 @@
     </row>
     <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -21213,7 +21217,7 @@
     </row>
     <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -21231,7 +21235,7 @@
     </row>
     <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -21249,7 +21253,7 @@
     </row>
     <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -21267,7 +21271,7 @@
     </row>
     <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -21285,7 +21289,7 @@
     </row>
     <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -21303,7 +21307,7 @@
     </row>
     <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -21321,7 +21325,7 @@
     </row>
     <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -21339,7 +21343,7 @@
     </row>
     <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -21357,7 +21361,7 @@
     </row>
     <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -21375,7 +21379,7 @@
     </row>
     <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -21393,7 +21397,7 @@
     </row>
     <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -21411,7 +21415,7 @@
     </row>
     <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -21429,7 +21433,7 @@
     </row>
     <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -21447,7 +21451,7 @@
     </row>
     <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -21465,7 +21469,7 @@
     </row>
     <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -21483,7 +21487,7 @@
     </row>
     <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -21501,7 +21505,7 @@
     </row>
     <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -21519,7 +21523,7 @@
     </row>
     <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -21537,7 +21541,7 @@
     </row>
     <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -21552,6 +21556,24 @@
       <c r="I755" s="9"/>
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
+    </row>
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A756" s="40">
+        <v>46174</v>
+      </c>
+      <c r="B756" s="20"/>
+      <c r="C756" s="13"/>
+      <c r="D756" s="39"/>
+      <c r="E756" s="9"/>
+      <c r="F756" s="20"/>
+      <c r="G756" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H756" s="39"/>
+      <c r="I756" s="9"/>
+      <c r="J756" s="11"/>
+      <c r="K756" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
